--- a/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105817</v>
+        <v>105816</v>
       </c>
       <c r="D69" t="n">
         <v>22855</v>
       </c>
       <c r="E69" t="n">
-        <v>186616008</v>
+        <v>186614253</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>186356</v>
+        <v>186357</v>
       </c>
       <c r="D100" t="n">
         <v>37749</v>
       </c>
       <c r="E100" t="n">
-        <v>306308327</v>
+        <v>306312150</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62513</v>
+        <v>62514</v>
       </c>
       <c r="D108" t="n">
         <v>10954</v>
       </c>
       <c r="E108" t="n">
-        <v>340290180</v>
+        <v>340490180</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>88466</v>
+        <v>88468</v>
       </c>
       <c r="D114" t="n">
         <v>14314</v>
       </c>
       <c r="E114" t="n">
-        <v>216744449</v>
+        <v>216749459</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6571,13 +6571,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>14631</v>
+        <v>14632</v>
       </c>
       <c r="D121" t="n">
         <v>2285</v>
       </c>
       <c r="E121" t="n">
-        <v>166810085</v>
+        <v>166992531</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -14629,13 +14629,13 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>10477</v>
+        <v>10478</v>
       </c>
       <c r="D279" t="n">
         <v>2119</v>
       </c>
       <c r="E279" t="n">
-        <v>50258881</v>
+        <v>50264281</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -15649,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9029</v>
+        <v>9026</v>
       </c>
       <c r="D299" t="n">
         <v>1438</v>
       </c>
       <c r="E299" t="n">
-        <v>49918414</v>
+        <v>49891360</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -17944,13 +17944,13 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>28868</v>
+        <v>28869</v>
       </c>
       <c r="D344" t="n">
         <v>5352</v>
       </c>
       <c r="E344" t="n">
-        <v>158914675</v>
+        <v>158938232</v>
       </c>
       <c r="F344" t="inlineStr">
         <is>
@@ -20341,13 +20341,13 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>13983</v>
+        <v>13984</v>
       </c>
       <c r="D391" t="n">
         <v>2759</v>
       </c>
       <c r="E391" t="n">
-        <v>63992975</v>
+        <v>63997173</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71234</v>
+        <v>71246</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110272213</v>
+        <v>110277178</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18837</v>
+        <v>18836</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75052351</v>
+        <v>75024804</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -20851,13 +20851,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>16904</v>
+        <v>16911</v>
       </c>
       <c r="D401" t="n">
         <v>2945</v>
       </c>
       <c r="E401" t="n">
-        <v>50383889</v>
+        <v>50425027</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9325</v>
+        <v>9326</v>
       </c>
       <c r="D408" t="n">
         <v>1304</v>
       </c>
       <c r="E408" t="n">
-        <v>23677096</v>
+        <v>23686296</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -21871,13 +21871,13 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>145340</v>
+        <v>145341</v>
       </c>
       <c r="D421" t="n">
         <v>30579</v>
       </c>
       <c r="E421" t="n">
-        <v>246833634</v>
+        <v>246840415</v>
       </c>
       <c r="F421" t="inlineStr">
         <is>
@@ -22228,13 +22228,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>40397</v>
+        <v>40398</v>
       </c>
       <c r="D428" t="n">
         <v>6930</v>
       </c>
       <c r="E428" t="n">
-        <v>214794795</v>
+        <v>214795790</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -23554,13 +23554,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>12239</v>
+        <v>12238</v>
       </c>
       <c r="D454" t="n">
         <v>2377</v>
       </c>
       <c r="E454" t="n">
-        <v>66592456</v>
+        <v>66590896</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35046</v>
+        <v>35048</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>160107500</v>
+        <v>160117921</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>164675</v>
+        <v>164676</v>
       </c>
       <c r="D468" t="n">
-        <v>27309</v>
+        <v>27310</v>
       </c>
       <c r="E468" t="n">
-        <v>287058129</v>
+        <v>287059661</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73739</v>
+        <v>73741</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>386230756</v>
+        <v>386233213</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74974</v>
+        <v>74975</v>
       </c>
       <c r="D474" t="n">
         <v>11549</v>
       </c>
       <c r="E474" t="n">
-        <v>434143030</v>
+        <v>434343030</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416589</v>
+        <v>416585</v>
       </c>
       <c r="D477" t="n">
-        <v>70494</v>
+        <v>70495</v>
       </c>
       <c r="E477" t="n">
-        <v>724710605</v>
+        <v>724623272</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291783</v>
+        <v>291772</v>
       </c>
       <c r="D484" t="n">
         <v>42562</v>
       </c>
       <c r="E484" t="n">
-        <v>1766328544</v>
+        <v>1766246969</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25135,13 +25135,13 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D485" t="n">
         <v>420</v>
       </c>
       <c r="E485" t="n">
-        <v>99344175</v>
+        <v>99339705</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230419</v>
+        <v>230414</v>
       </c>
       <c r="D487" t="n">
         <v>33842</v>
       </c>
       <c r="E487" t="n">
-        <v>1812330499</v>
+        <v>1812124067</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12241</v>
+        <v>12240</v>
       </c>
       <c r="D491" t="n">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E491" t="n">
-        <v>75399746</v>
+        <v>75396798</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62165</v>
+        <v>62166</v>
       </c>
       <c r="D509" t="n">
         <v>11277</v>
       </c>
       <c r="E509" t="n">
-        <v>298500853</v>
+        <v>298518861</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71168</v>
+        <v>71160</v>
       </c>
       <c r="D511" t="n">
         <v>10922</v>
       </c>
       <c r="E511" t="n">
-        <v>286903932</v>
+        <v>286488150</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56087</v>
+        <v>56085</v>
       </c>
       <c r="D520" t="n">
         <v>8769</v>
       </c>
       <c r="E520" t="n">
-        <v>253210292</v>
+        <v>253185332</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27481,13 +27481,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>98235</v>
+        <v>98236</v>
       </c>
       <c r="D531" t="n">
         <v>19246</v>
       </c>
       <c r="E531" t="n">
-        <v>165241680</v>
+        <v>165243320</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -27940,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>76626</v>
+        <v>76627</v>
       </c>
       <c r="D540" t="n">
         <v>17494</v>
       </c>
       <c r="E540" t="n">
-        <v>114123502</v>
+        <v>114124865</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25034</v>
+        <v>25047</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92043375</v>
+        <v>92100271</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39903</v>
+        <v>39911</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60347848</v>
+        <v>60347099</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18422</v>
+        <v>18423</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>72341763</v>
+        <v>72343317</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12388</v>
+        <v>12389</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>39959770</v>
+        <v>39983570</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -30490,13 +30490,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D590" t="n">
         <v>157</v>
       </c>
       <c r="E590" t="n">
-        <v>4605934</v>
+        <v>4694818</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -30949,13 +30949,13 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>66143</v>
+        <v>66144</v>
       </c>
       <c r="D599" t="n">
         <v>14270</v>
       </c>
       <c r="E599" t="n">
-        <v>120502250</v>
+        <v>120508743</v>
       </c>
       <c r="F599" t="inlineStr">
         <is>
@@ -31612,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>9698</v>
+        <v>9699</v>
       </c>
       <c r="D612" t="n">
         <v>1964</v>
       </c>
       <c r="E612" t="n">
-        <v>47949364</v>
+        <v>47994364</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>163430</v>
+        <v>163429</v>
       </c>
       <c r="D659" t="n">
         <v>36203</v>
       </c>
       <c r="E659" t="n">
-        <v>278422088</v>
+        <v>278421637</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73196</v>
+        <v>73197</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367141670</v>
+        <v>367142267</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -37936,13 +37936,13 @@
         </is>
       </c>
       <c r="C736" t="n">
-        <v>26808</v>
+        <v>26809</v>
       </c>
       <c r="D736" t="n">
         <v>5726</v>
       </c>
       <c r="E736" t="n">
-        <v>51203410</v>
+        <v>51206159</v>
       </c>
       <c r="F736" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>58392</v>
+        <v>58391</v>
       </c>
       <c r="D844" t="n">
-        <v>11375</v>
+        <v>11374</v>
       </c>
       <c r="E844" t="n">
-        <v>290405101</v>
+        <v>290395101</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>
@@ -43852,13 +43852,13 @@
         </is>
       </c>
       <c r="C852" t="n">
-        <v>27076</v>
+        <v>27074</v>
       </c>
       <c r="D852" t="n">
         <v>5532</v>
       </c>
       <c r="E852" t="n">
-        <v>133385704</v>
+        <v>133339983</v>
       </c>
       <c r="F852" t="inlineStr">
         <is>
@@ -46351,13 +46351,13 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>81808</v>
+        <v>81809</v>
       </c>
       <c r="D901" t="n">
         <v>13203</v>
       </c>
       <c r="E901" t="n">
-        <v>443358990</v>
+        <v>443365592</v>
       </c>
       <c r="F901" t="inlineStr">
         <is>
@@ -47320,13 +47320,13 @@
         </is>
       </c>
       <c r="C920" t="n">
-        <v>8093</v>
+        <v>8094</v>
       </c>
       <c r="D920" t="n">
         <v>1180</v>
       </c>
       <c r="E920" t="n">
-        <v>30412786</v>
+        <v>30424296</v>
       </c>
       <c r="F920" t="inlineStr">
         <is>
